--- a/QUANGHANH2/excel/CDVT/download/tong-hop-vat-tu-chi-tiet-download.xlsx
+++ b/QUANGHANH2/excel/CDVT/download/tong-hop-vat-tu-chi-tiet-download.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win\Documents\GitHub\QUANGHANH-PROTOTYPE\QUANGHANH2\excel\CDVT\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,21 +32,20 @@
     <t>Đơn Vị Tính</t>
   </si>
   <si>
-    <t>Số Lượng Cấp</t>
-  </si>
-  <si>
     <t>Áo lọc gió xe kamaz</t>
   </si>
   <si>
     <t>Cái</t>
+  </si>
+  <si>
+    <t>Số Lượng Thực Lĩnh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,11 +83,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -384,7 +383,7 @@
     <col min="3" max="3" width="27.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,23 +391,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0">
+      <c r="C2">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>